--- a/weekday and monthly analysis/Monthly_Sales_Parts_Persian.xlsx
+++ b/weekday and monthly analysis/Monthly_Sales_Parts_Persian.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhshi\Videos\snapp_box_integration\weekday and monthly analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhshi\Videos\Restaurant_data_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6759CDD-2E25-4E59-8BC9-D79BF1C15A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C9088B-FF4D-48B6-9E6F-44AA907CA4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <t>MonthPart</t>
   </si>
   <si>
-    <t>ghymat</t>
+    <t>Ghymatkoly</t>
   </si>
   <si>
     <t>1402/06/04</t>
@@ -1010,10 +1010,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1321,14 +1321,12 @@
   <dimension ref="A1:F298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1341,11 +1339,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="2">
         <f>SUMIF(B:B,"Part 1",C:C)</f>
-        <v>363161930</v>
-      </c>
-      <c r="F1" s="2" t="s">
+        <v>659660828</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>303</v>
       </c>
     </row>
@@ -1357,13 +1355,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1684400</v>
-      </c>
-      <c r="E2">
+        <v>1924400</v>
+      </c>
+      <c r="E2" s="2">
         <f>SUMIF(B:B,"Part 2",C:C)</f>
-        <v>343467510</v>
-      </c>
-      <c r="F2" s="3" t="s">
+        <v>607439525</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>304</v>
       </c>
     </row>
@@ -1375,13 +1373,13 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>3058300</v>
-      </c>
-      <c r="E3">
+        <v>4946300</v>
+      </c>
+      <c r="E3" s="2">
         <f>SUMIF(B:B,"Part 3",C:C)</f>
-        <v>363025490</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>651072074</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -1393,12 +1391,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>3893000</v>
-      </c>
-      <c r="E4">
-        <f>SUM(E1:E3)</f>
-        <v>1069654930</v>
-      </c>
+        <v>6001000</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1408,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>2199300</v>
+        <v>3924300</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1419,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3194500</v>
+        <v>5037500</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1430,7 +1426,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2488500</v>
+        <v>3965000</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1441,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="C8">
-        <v>2000900</v>
+        <v>2959900</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1452,7 +1448,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>1991900</v>
+        <v>3416900</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1463,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>2244300</v>
+        <v>3630300</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,7 +1470,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>2914500</v>
+        <v>5298000</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1485,7 +1481,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>3458100</v>
+        <v>6093600</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>5088300</v>
+        <v>10305300</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1507,7 +1503,7 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2123500</v>
+        <v>3291500</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1518,7 +1514,7 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>1727500</v>
+        <v>2676500</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1529,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>2750300</v>
+        <v>4435300</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1540,7 +1536,7 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>3247000</v>
+        <v>4703000</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1551,7 +1547,7 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>4042900</v>
+        <v>5720900</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1562,7 +1558,7 @@
         <v>23</v>
       </c>
       <c r="C19">
-        <v>3172000</v>
+        <v>4906000</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1573,7 +1569,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4228500</v>
+        <v>5337500</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1584,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>3628900</v>
+        <v>6285400</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1595,7 +1591,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>1015500</v>
+        <v>1862500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1606,7 +1602,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>2533900</v>
+        <v>3694900</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1617,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>3963000</v>
+        <v>5347000</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1628,7 +1624,7 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>4424200</v>
+        <v>6119200</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1639,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="C26">
-        <v>4385800</v>
+        <v>6208800</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1650,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="C27">
-        <v>2108000</v>
+        <v>3299000</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>3680400</v>
+        <v>5578460</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1672,7 +1668,7 @@
         <v>23</v>
       </c>
       <c r="C29">
-        <v>2901800</v>
+        <v>4532800</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1683,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="C30">
-        <v>4000500</v>
+        <v>5451500</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1694,7 +1690,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>2241500</v>
+        <v>3719000</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1705,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C32">
-        <v>3631500</v>
+        <v>4686500</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1716,7 +1712,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>3848500</v>
+        <v>5053500</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1727,7 +1723,7 @@
         <v>4</v>
       </c>
       <c r="C34">
-        <v>3154500</v>
+        <v>4384500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1738,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>3541500</v>
+        <v>5670500</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1749,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>2229800</v>
+        <v>9988000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1760,7 +1756,7 @@
         <v>4</v>
       </c>
       <c r="C37">
-        <v>4024300</v>
+        <v>5759500</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,7 +1767,7 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>1866100</v>
+        <v>2377100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1782,7 +1778,7 @@
         <v>4</v>
       </c>
       <c r="C39">
-        <v>3127500</v>
+        <v>4240000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>3695500</v>
+        <v>5500500</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1804,7 +1800,7 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>4170800</v>
+        <v>5631800</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1815,7 +1811,7 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>3783600</v>
+        <v>5193600</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1826,7 +1822,7 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>2539000</v>
+        <v>4126500</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1837,7 +1833,7 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>4190500</v>
+        <v>5924001</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1848,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>3928500</v>
+        <v>5544000</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1859,7 +1855,7 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>4245800</v>
+        <v>5897800</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1870,7 +1866,7 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>5500500</v>
+        <v>7361000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1881,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>4326500</v>
+        <v>6364500</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1892,7 +1888,7 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>3871300</v>
+        <v>7210800</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1903,7 +1899,7 @@
         <v>23</v>
       </c>
       <c r="C50">
-        <v>2564000</v>
+        <v>3596000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1914,7 +1910,7 @@
         <v>23</v>
       </c>
       <c r="C51">
-        <v>2809800</v>
+        <v>4106800</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1925,7 +1921,7 @@
         <v>23</v>
       </c>
       <c r="C52">
-        <v>3632600</v>
+        <v>6048600</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1936,7 +1932,7 @@
         <v>23</v>
       </c>
       <c r="C53">
-        <v>3639500</v>
+        <v>5373500</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1947,7 +1943,7 @@
         <v>23</v>
       </c>
       <c r="C54">
-        <v>4350000</v>
+        <v>6729000</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1958,7 +1954,7 @@
         <v>23</v>
       </c>
       <c r="C55">
-        <v>4973000</v>
+        <v>7228000</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1969,7 +1965,7 @@
         <v>23</v>
       </c>
       <c r="C56">
-        <v>5216000</v>
+        <v>8486000</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1980,7 +1976,7 @@
         <v>23</v>
       </c>
       <c r="C57">
-        <v>3419500</v>
+        <v>5429500</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1991,7 +1987,7 @@
         <v>23</v>
       </c>
       <c r="C58">
-        <v>5462100</v>
+        <v>8262100</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -2002,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="C59">
-        <v>5850800</v>
+        <v>8381600</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2013,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="C60">
-        <v>3871800</v>
+        <v>5460800</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -2024,7 +2020,7 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>3602300</v>
+        <v>5312300</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -2035,7 +2031,7 @@
         <v>4</v>
       </c>
       <c r="C62">
-        <v>5669500</v>
+        <v>7676500</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -2046,7 +2042,7 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <v>2363000</v>
+        <v>4238000</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -2057,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="C64">
-        <v>4199500</v>
+        <v>6136500</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -2068,7 +2064,7 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>3866000</v>
+        <v>5222000</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2079,7 +2075,7 @@
         <v>4</v>
       </c>
       <c r="C66">
-        <v>5398800</v>
+        <v>7281800</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -2090,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="C67">
-        <v>3879000</v>
+        <v>5909000</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -2101,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="C68">
-        <v>4885000</v>
+        <v>7176000</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -2112,7 +2108,7 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>6445000</v>
+        <v>12759500</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -2123,7 +2119,7 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>3709100</v>
+        <v>5563100</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2134,7 +2130,7 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>250000</v>
+        <v>585000</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -2145,7 +2141,7 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>2972000</v>
+        <v>5075000</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -2156,7 +2152,7 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>5036000</v>
+        <v>7588000</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -2167,7 +2163,7 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>1742500</v>
+        <v>2353000</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -2178,7 +2174,7 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>2856000</v>
+        <v>4345000</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -2189,7 +2185,7 @@
         <v>23</v>
       </c>
       <c r="C76">
-        <v>5148000</v>
+        <v>7796000</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -2200,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="C77">
-        <v>4260000</v>
+        <v>5852000</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2211,7 +2207,7 @@
         <v>23</v>
       </c>
       <c r="C78">
-        <v>3846000</v>
+        <v>5682170</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -2222,7 +2218,7 @@
         <v>23</v>
       </c>
       <c r="C79">
-        <v>3088000</v>
+        <v>5797710</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -2233,7 +2229,7 @@
         <v>23</v>
       </c>
       <c r="C80">
-        <v>3020000</v>
+        <v>4520230</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -2244,7 +2240,7 @@
         <v>23</v>
       </c>
       <c r="C81">
-        <v>1866000</v>
+        <v>3155550</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -2255,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="C82">
-        <v>3184000</v>
+        <v>5642930</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -2266,7 +2262,7 @@
         <v>23</v>
       </c>
       <c r="C83">
-        <v>2945000</v>
+        <v>4586720</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -2277,7 +2273,7 @@
         <v>23</v>
       </c>
       <c r="C84">
-        <v>3125000</v>
+        <v>4378530</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -2288,7 +2284,7 @@
         <v>23</v>
       </c>
       <c r="C85">
-        <v>4178000</v>
+        <v>7172200</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -2299,7 +2295,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>4939000</v>
+        <v>8455130</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -2310,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="C87">
-        <v>4371000</v>
+        <v>7483940</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -2321,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="C88">
-        <v>1414000</v>
+        <v>2680310</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2332,7 +2328,7 @@
         <v>4</v>
       </c>
       <c r="C89">
-        <v>3223000</v>
+        <v>5877280</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -2343,7 +2339,7 @@
         <v>4</v>
       </c>
       <c r="C90">
-        <v>3775000</v>
+        <v>6849560</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -2354,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="C91">
-        <v>3298000</v>
+        <v>4910450</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="C92">
-        <v>3874000</v>
+        <v>6126890</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -2376,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="C93">
-        <v>4451500</v>
+        <v>8385915</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -2387,7 +2383,7 @@
         <v>4</v>
       </c>
       <c r="C94">
-        <v>3812000</v>
+        <v>6456615</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -2398,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>3695500</v>
+        <v>6777075</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -2409,7 +2405,7 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>3171000</v>
+        <v>5539380</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -2420,7 +2416,7 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>3510000</v>
+        <v>5936140</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -2431,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>4862500</v>
+        <v>10617690</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -2442,7 +2438,7 @@
         <v>12</v>
       </c>
       <c r="C99">
-        <v>3179500</v>
+        <v>4503335</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -2453,7 +2449,7 @@
         <v>12</v>
       </c>
       <c r="C100">
-        <v>2739000</v>
+        <v>4472270</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -2464,7 +2460,7 @@
         <v>12</v>
       </c>
       <c r="C101">
-        <v>1680000</v>
+        <v>3175170</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -2475,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="C102">
-        <v>2335000</v>
+        <v>3631880</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2486,7 +2482,7 @@
         <v>12</v>
       </c>
       <c r="C103">
-        <v>3361000</v>
+        <v>4911540</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2497,7 +2493,7 @@
         <v>12</v>
       </c>
       <c r="C104">
-        <v>3514000</v>
+        <v>5060870</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -2508,7 +2504,7 @@
         <v>23</v>
       </c>
       <c r="C105">
-        <v>3204000</v>
+        <v>4528950</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -2519,7 +2515,7 @@
         <v>23</v>
       </c>
       <c r="C106">
-        <v>3606500</v>
+        <v>5631485</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -2530,7 +2526,7 @@
         <v>23</v>
       </c>
       <c r="C107">
-        <v>3033500</v>
+        <v>6512205</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -2541,7 +2537,7 @@
         <v>23</v>
       </c>
       <c r="C108">
-        <v>1129000</v>
+        <v>2466670</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -2552,7 +2548,7 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>3893000</v>
+        <v>8180450</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -2563,7 +2559,7 @@
         <v>23</v>
       </c>
       <c r="C110">
-        <v>2504000</v>
+        <v>6545450</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2574,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="C111">
-        <v>2337000</v>
+        <v>4879930</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -2585,7 +2581,7 @@
         <v>23</v>
       </c>
       <c r="C112">
-        <v>3300500</v>
+        <v>5380240</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2596,7 +2592,7 @@
         <v>23</v>
       </c>
       <c r="C113">
-        <v>4235500</v>
+        <v>6763995</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2607,7 +2603,7 @@
         <v>23</v>
       </c>
       <c r="C114">
-        <v>2428000</v>
+        <v>4028640</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2618,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="C115">
-        <v>4191000</v>
+        <v>8638250</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2629,7 +2625,7 @@
         <v>4</v>
       </c>
       <c r="C116">
-        <v>2941000</v>
+        <v>5732310</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2640,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="C117">
-        <v>1757000</v>
+        <v>2887410</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2651,7 +2647,7 @@
         <v>4</v>
       </c>
       <c r="C118">
-        <v>3757000</v>
+        <v>6270770</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2662,7 +2658,7 @@
         <v>4</v>
       </c>
       <c r="C119">
-        <v>2988000</v>
+        <v>5132810</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2673,7 +2669,7 @@
         <v>4</v>
       </c>
       <c r="C120">
-        <v>2107000</v>
+        <v>3511980</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2684,7 +2680,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>2040000</v>
+        <v>3777940</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -2695,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="C122">
-        <v>4953000</v>
+        <v>7693220</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2706,7 +2702,7 @@
         <v>4</v>
       </c>
       <c r="C123">
-        <v>3488000</v>
+        <v>5666910</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2717,7 +2713,7 @@
         <v>12</v>
       </c>
       <c r="C124">
-        <v>2214500</v>
+        <v>3384995</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2728,7 +2724,7 @@
         <v>12</v>
       </c>
       <c r="C125">
-        <v>4185000</v>
+        <v>8056190</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2739,7 +2735,7 @@
         <v>12</v>
       </c>
       <c r="C126">
-        <v>3948000</v>
+        <v>8423520</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -2750,7 +2746,7 @@
         <v>12</v>
       </c>
       <c r="C127">
-        <v>4480000</v>
+        <v>6720940</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -2761,7 +2757,7 @@
         <v>12</v>
       </c>
       <c r="C128">
-        <v>3017000</v>
+        <v>7598935</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -2772,7 +2768,7 @@
         <v>12</v>
       </c>
       <c r="C129">
-        <v>2780500</v>
+        <v>4048260</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -2783,7 +2779,7 @@
         <v>12</v>
       </c>
       <c r="C130">
-        <v>4041000</v>
+        <v>6161770</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -2794,7 +2790,7 @@
         <v>12</v>
       </c>
       <c r="C131">
-        <v>3889000</v>
+        <v>6056040</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2805,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="C132">
-        <v>3154000</v>
+        <v>7197270</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -2816,7 +2812,7 @@
         <v>12</v>
       </c>
       <c r="C133">
-        <v>3695000</v>
+        <v>5693070</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -2827,7 +2823,7 @@
         <v>23</v>
       </c>
       <c r="C134">
-        <v>3788000</v>
+        <v>6171580</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -2838,7 +2834,7 @@
         <v>23</v>
       </c>
       <c r="C135">
-        <v>2258000</v>
+        <v>8258930</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -2849,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="C136">
-        <v>3158000</v>
+        <v>4951870</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2860,7 +2856,7 @@
         <v>23</v>
       </c>
       <c r="C137">
-        <v>3293000</v>
+        <v>5206930</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -2871,7 +2867,7 @@
         <v>23</v>
       </c>
       <c r="C138">
-        <v>3754500</v>
+        <v>5991185</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -2882,7 +2878,7 @@
         <v>23</v>
       </c>
       <c r="C139">
-        <v>2969000</v>
+        <v>4321850</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -2893,7 +2889,7 @@
         <v>23</v>
       </c>
       <c r="C140">
-        <v>2757000</v>
+        <v>4560560</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -2904,7 +2900,7 @@
         <v>23</v>
       </c>
       <c r="C141">
-        <v>2799000</v>
+        <v>4094400</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2915,7 +2911,7 @@
         <v>23</v>
       </c>
       <c r="C142">
-        <v>2239000</v>
+        <v>4061880</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -2926,7 +2922,7 @@
         <v>23</v>
       </c>
       <c r="C143">
-        <v>3369000</v>
+        <v>5233190</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -2937,7 +2933,7 @@
         <v>4</v>
       </c>
       <c r="C144">
-        <v>3925500</v>
+        <v>7510740</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -2948,7 +2944,7 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>3687000</v>
+        <v>5245080</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -2959,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>4136500</v>
+        <v>7227780</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2970,7 +2966,7 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>2669000</v>
+        <v>5550280</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -2981,7 +2977,7 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>2791500</v>
+        <v>5463080</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -2992,7 +2988,7 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>1193500</v>
+        <v>1644265</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -3003,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>2926000</v>
+        <v>5091935</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -3014,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>4090500</v>
+        <v>6136700</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -3025,7 +3021,7 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>3633000</v>
+        <v>6088740</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -3036,7 +3032,7 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>3539000</v>
+        <v>10625865</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -3047,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="C154">
-        <v>2857000</v>
+        <v>4719700</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -3058,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="C155">
-        <v>5217000</v>
+        <v>10618780</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -3069,7 +3065,7 @@
         <v>12</v>
       </c>
       <c r="C156">
-        <v>753000</v>
+        <v>1262220</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -3080,7 +3076,7 @@
         <v>12</v>
       </c>
       <c r="C157">
-        <v>4102000</v>
+        <v>6633195</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -3091,7 +3087,7 @@
         <v>12</v>
       </c>
       <c r="C158">
-        <v>5255000</v>
+        <v>7934110</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -3102,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="C159">
-        <v>3327000</v>
+        <v>6292570</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -3113,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="C160">
-        <v>3915500</v>
+        <v>6369415</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -3124,7 +3120,7 @@
         <v>12</v>
       </c>
       <c r="C161">
-        <v>3899500</v>
+        <v>6664805</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -3135,7 +3131,7 @@
         <v>12</v>
       </c>
       <c r="C162">
-        <v>3841500</v>
+        <v>6985265</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -3146,7 +3142,7 @@
         <v>23</v>
       </c>
       <c r="C163">
-        <v>4341000</v>
+        <v>10201310</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -3157,7 +3153,7 @@
         <v>23</v>
       </c>
       <c r="C164">
-        <v>1852000</v>
+        <v>6060400</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -3168,7 +3164,7 @@
         <v>23</v>
       </c>
       <c r="C165">
-        <v>3538000</v>
+        <v>6215180</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -3179,7 +3175,7 @@
         <v>23</v>
       </c>
       <c r="C166">
-        <v>3630500</v>
+        <v>6124165</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -3190,7 +3186,7 @@
         <v>23</v>
       </c>
       <c r="C167">
-        <v>5170000</v>
+        <v>10729670</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -3201,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="C168">
-        <v>2353500</v>
+        <v>4442840</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -3212,7 +3208,7 @@
         <v>23</v>
       </c>
       <c r="C169">
-        <v>4515000</v>
+        <v>6657720</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -3223,7 +3219,7 @@
         <v>23</v>
       </c>
       <c r="C170">
-        <v>4075500</v>
+        <v>8101425</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -3234,7 +3230,7 @@
         <v>23</v>
       </c>
       <c r="C171">
-        <v>4342500</v>
+        <v>8628985</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -3245,7 +3241,7 @@
         <v>23</v>
       </c>
       <c r="C172">
-        <v>2665000</v>
+        <v>5075040</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -3256,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="C173">
-        <v>3586000</v>
+        <v>6080565</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -3267,7 +3263,7 @@
         <v>4</v>
       </c>
       <c r="C174">
-        <v>5361000</v>
+        <v>9612710</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -3278,7 +3274,7 @@
         <v>4</v>
       </c>
       <c r="C175">
-        <v>5697500</v>
+        <v>9148915</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -3289,7 +3285,7 @@
         <v>4</v>
       </c>
       <c r="C176">
-        <v>3511000</v>
+        <v>6555260</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -3300,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="C177">
-        <v>4852000</v>
+        <v>6940030</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -3311,7 +3307,7 @@
         <v>4</v>
       </c>
       <c r="C178">
-        <v>2519500</v>
+        <v>4104940</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -3322,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="C179">
-        <v>3763500</v>
+        <v>5482155</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -3333,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="C180">
-        <v>2601500</v>
+        <v>3487455</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -3344,7 +3340,7 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>2645500</v>
+        <v>4373625</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
@@ -3355,7 +3351,7 @@
         <v>4</v>
       </c>
       <c r="C182">
-        <v>4700000</v>
+        <v>8439325</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -3366,7 +3362,7 @@
         <v>12</v>
       </c>
       <c r="C183">
-        <v>2388000</v>
+        <v>4174700</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
@@ -3377,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="C184">
-        <v>2599000</v>
+        <v>5134990</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
@@ -3388,7 +3384,7 @@
         <v>12</v>
       </c>
       <c r="C185">
-        <v>3585000</v>
+        <v>6815770</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
@@ -3399,7 +3395,7 @@
         <v>12</v>
       </c>
       <c r="C186">
-        <v>3806500</v>
+        <v>6728025</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
@@ -3410,7 +3406,7 @@
         <v>12</v>
       </c>
       <c r="C187">
-        <v>4145500</v>
+        <v>6319275</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -3421,7 +3417,7 @@
         <v>12</v>
       </c>
       <c r="C188">
-        <v>3153000</v>
+        <v>5009640</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
@@ -3432,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="C189">
-        <v>3469000</v>
+        <v>6442990</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
@@ -3443,7 +3439,7 @@
         <v>12</v>
       </c>
       <c r="C190">
-        <v>3132000</v>
+        <v>6792880</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
@@ -3454,7 +3450,7 @@
         <v>12</v>
       </c>
       <c r="C191">
-        <v>3484000</v>
+        <v>5080490</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
@@ -3465,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="C192">
-        <v>4841000</v>
+        <v>6810320</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -3476,7 +3472,7 @@
         <v>23</v>
       </c>
       <c r="C193">
-        <v>2515000</v>
+        <v>4382890</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
@@ -3487,7 +3483,7 @@
         <v>23</v>
       </c>
       <c r="C194">
-        <v>5465500</v>
+        <v>10164795</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
@@ -3498,7 +3494,7 @@
         <v>23</v>
       </c>
       <c r="C195">
-        <v>7085500</v>
+        <v>17392585</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
@@ -3509,7 +3505,7 @@
         <v>23</v>
       </c>
       <c r="C196">
-        <v>7352000</v>
+        <v>13211345</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
@@ -3520,7 +3516,7 @@
         <v>23</v>
       </c>
       <c r="C197">
-        <v>7277000</v>
+        <v>15776660</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -3531,7 +3527,7 @@
         <v>23</v>
       </c>
       <c r="C198">
-        <v>8488000</v>
+        <v>14319875</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
@@ -3542,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="C199">
-        <v>8389500</v>
+        <v>15295970</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
@@ -3553,7 +3549,7 @@
         <v>23</v>
       </c>
       <c r="C200">
-        <v>8103500</v>
+        <v>14426150</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
@@ -3564,7 +3560,7 @@
         <v>23</v>
       </c>
       <c r="C201">
-        <v>5769050</v>
+        <v>10293579</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
@@ -3575,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="C202">
-        <v>7779500</v>
+        <v>16963234</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -3586,7 +3582,7 @@
         <v>4</v>
       </c>
       <c r="C203">
-        <v>7811700</v>
+        <v>21787465</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
@@ -3597,7 +3593,7 @@
         <v>4</v>
       </c>
       <c r="C204">
-        <v>6235400</v>
+        <v>17000839</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
@@ -3608,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="C205">
-        <v>3737750</v>
+        <v>11876477</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
@@ -3619,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="C206">
-        <v>4802860</v>
+        <v>17686146</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
@@ -3630,7 +3626,7 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>3474200</v>
+        <v>8132960</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -3641,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="C208">
-        <v>3748920</v>
+        <v>11705232</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
@@ -3652,7 +3648,7 @@
         <v>4</v>
       </c>
       <c r="C209">
-        <v>2462600</v>
+        <v>5110710</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
@@ -3663,7 +3659,7 @@
         <v>4</v>
       </c>
       <c r="C210">
-        <v>4140120</v>
+        <v>9173538</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
@@ -3674,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="C211">
-        <v>2404800</v>
+        <v>4410890</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
@@ -3685,7 +3681,7 @@
         <v>12</v>
       </c>
       <c r="C212">
-        <v>4330470</v>
+        <v>9137227</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
@@ -3696,7 +3692,7 @@
         <v>12</v>
       </c>
       <c r="C213">
-        <v>4587400</v>
+        <v>14680380</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -3707,7 +3703,7 @@
         <v>12</v>
       </c>
       <c r="C214">
-        <v>8919850</v>
+        <v>15278835</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
@@ -3718,7 +3714,7 @@
         <v>12</v>
       </c>
       <c r="C215">
-        <v>1281400</v>
+        <v>2677400</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
@@ -3729,7 +3725,7 @@
         <v>12</v>
       </c>
       <c r="C216">
-        <v>6132600</v>
+        <v>8655900</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
@@ -3740,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="C217">
-        <v>5660200</v>
+        <v>11312290</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
@@ -3751,7 +3747,7 @@
         <v>12</v>
       </c>
       <c r="C218">
-        <v>2596050</v>
+        <v>6004130</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
@@ -3762,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="C219">
-        <v>4113820</v>
+        <v>7499404</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -3773,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="C220">
-        <v>4575200</v>
+        <v>7507720</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
@@ -3784,7 +3780,7 @@
         <v>12</v>
       </c>
       <c r="C221">
-        <v>4384020</v>
+        <v>8048062</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
@@ -3795,7 +3791,7 @@
         <v>23</v>
       </c>
       <c r="C222">
-        <v>4469740</v>
+        <v>9743954</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
@@ -3806,7 +3802,7 @@
         <v>23</v>
       </c>
       <c r="C223">
-        <v>702400</v>
+        <v>1039940</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
@@ -3817,7 +3813,7 @@
         <v>23</v>
       </c>
       <c r="C224">
-        <v>1462650</v>
+        <v>4837965</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
@@ -3828,7 +3824,7 @@
         <v>23</v>
       </c>
       <c r="C225">
-        <v>1235500</v>
+        <v>3251710</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
@@ -3839,7 +3835,7 @@
         <v>23</v>
       </c>
       <c r="C226">
-        <v>4249890</v>
+        <v>6684359</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
@@ -3850,7 +3846,7 @@
         <v>23</v>
       </c>
       <c r="C227">
-        <v>1885870</v>
+        <v>4283367</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
@@ -3861,7 +3857,7 @@
         <v>23</v>
       </c>
       <c r="C228">
-        <v>3293020</v>
+        <v>6133292</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
@@ -3872,7 +3868,7 @@
         <v>23</v>
       </c>
       <c r="C229">
-        <v>4069120</v>
+        <v>7400052</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
@@ -3883,7 +3879,7 @@
         <v>23</v>
       </c>
       <c r="C230">
-        <v>3510640</v>
+        <v>6722364</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
@@ -3894,7 +3890,7 @@
         <v>23</v>
       </c>
       <c r="C231">
-        <v>2816070</v>
+        <v>5012139</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
@@ -3905,7 +3901,7 @@
         <v>23</v>
       </c>
       <c r="C232">
-        <v>2886700</v>
+        <v>5480420</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
@@ -3916,7 +3912,7 @@
         <v>4</v>
       </c>
       <c r="C233">
-        <v>3106400</v>
+        <v>5764550</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
@@ -3927,7 +3923,7 @@
         <v>4</v>
       </c>
       <c r="C234">
-        <v>2782600</v>
+        <v>4776200</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
@@ -3938,7 +3934,7 @@
         <v>4</v>
       </c>
       <c r="C235">
-        <v>3155620</v>
+        <v>5604412</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
@@ -3949,7 +3945,7 @@
         <v>4</v>
       </c>
       <c r="C236">
-        <v>3121300</v>
+        <v>5906560</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
@@ -3960,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>4295700</v>
+        <v>6818240</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
@@ -3971,7 +3967,7 @@
         <v>4</v>
       </c>
       <c r="C238">
-        <v>3555920</v>
+        <v>5518942</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
@@ -3982,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="C239">
-        <v>1892100</v>
+        <v>2971870</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
@@ -3993,7 +3989,7 @@
         <v>4</v>
       </c>
       <c r="C240">
-        <v>3487200</v>
+        <v>5668850</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
@@ -4004,7 +4000,7 @@
         <v>4</v>
       </c>
       <c r="C241">
-        <v>7424490</v>
+        <v>13007489</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
@@ -4015,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="C242">
-        <v>3743560</v>
+        <v>7282946</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
@@ -4026,7 +4022,7 @@
         <v>12</v>
       </c>
       <c r="C243">
-        <v>3480500</v>
+        <v>5461830</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
@@ -4037,7 +4033,7 @@
         <v>12</v>
       </c>
       <c r="C244">
-        <v>4378420</v>
+        <v>7793302</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
@@ -4048,7 +4044,7 @@
         <v>12</v>
       </c>
       <c r="C245">
-        <v>3494100</v>
+        <v>11491590</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
@@ -4059,7 +4055,7 @@
         <v>12</v>
       </c>
       <c r="C246">
-        <v>2644900</v>
+        <v>5777310</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
@@ -4070,7 +4066,7 @@
         <v>12</v>
       </c>
       <c r="C247">
-        <v>2008700</v>
+        <v>4604600</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
@@ -4081,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="C248">
-        <v>3326200</v>
+        <v>5331150</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
@@ -4092,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="C249">
-        <v>2898000</v>
+        <v>5611210</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
@@ -4103,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="C250">
-        <v>4517640</v>
+        <v>7484686</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
@@ -4114,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="C251">
-        <v>3545620</v>
+        <v>7660422</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
@@ -4125,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="C252">
-        <v>2569100</v>
+        <v>4384490</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
@@ -4136,7 +4132,7 @@
         <v>23</v>
       </c>
       <c r="C253">
-        <v>1884850</v>
+        <v>3545355</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
@@ -4147,7 +4143,7 @@
         <v>23</v>
       </c>
       <c r="C254">
-        <v>3580100</v>
+        <v>5750690</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
@@ -4158,7 +4154,7 @@
         <v>23</v>
       </c>
       <c r="C255">
-        <v>4114820</v>
+        <v>7289612</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
@@ -4169,7 +4165,7 @@
         <v>23</v>
       </c>
       <c r="C256">
-        <v>2507320</v>
+        <v>4192034</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
@@ -4180,7 +4176,7 @@
         <v>23</v>
       </c>
       <c r="C257">
-        <v>2579820</v>
+        <v>5834972</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
@@ -4191,7 +4187,7 @@
         <v>23</v>
       </c>
       <c r="C258">
-        <v>4023200</v>
+        <v>6622110</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
@@ -4202,7 +4198,7 @@
         <v>23</v>
       </c>
       <c r="C259">
-        <v>4233620</v>
+        <v>7492782</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
@@ -4213,7 +4209,7 @@
         <v>23</v>
       </c>
       <c r="C260">
-        <v>1829850</v>
+        <v>3709035</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
@@ -4224,7 +4220,7 @@
         <v>23</v>
       </c>
       <c r="C261">
-        <v>3820050</v>
+        <v>6824455</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
@@ -4235,7 +4231,7 @@
         <v>23</v>
       </c>
       <c r="C262">
-        <v>3502570</v>
+        <v>6589077</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
@@ -4246,7 +4242,7 @@
         <v>23</v>
       </c>
       <c r="C263">
-        <v>4285540</v>
+        <v>8176894</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
@@ -4257,7 +4253,7 @@
         <v>4</v>
       </c>
       <c r="C264">
-        <v>5710520</v>
+        <v>9759882</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
@@ -4268,7 +4264,7 @@
         <v>4</v>
       </c>
       <c r="C265">
-        <v>4345650</v>
+        <v>7872315</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
@@ -4279,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="C266">
-        <v>4322300</v>
+        <v>8229980</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
@@ -4290,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="C267">
-        <v>1929100</v>
+        <v>4064060</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
@@ -4301,7 +4297,7 @@
         <v>4</v>
       </c>
       <c r="C268">
-        <v>3254550</v>
+        <v>4473315</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
@@ -4312,7 +4308,7 @@
         <v>4</v>
       </c>
       <c r="C269">
-        <v>3704020</v>
+        <v>6658542</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
@@ -4323,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="C270">
-        <v>1852900</v>
+        <v>3953290</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
@@ -4334,7 +4330,7 @@
         <v>4</v>
       </c>
       <c r="C271">
-        <v>4155150</v>
+        <v>7036865</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
@@ -4345,7 +4341,7 @@
         <v>4</v>
       </c>
       <c r="C272">
-        <v>4125900</v>
+        <v>7073220</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
@@ -4356,7 +4352,7 @@
         <v>4</v>
       </c>
       <c r="C273">
-        <v>5294840</v>
+        <v>8930746</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
@@ -4367,7 +4363,7 @@
         <v>12</v>
       </c>
       <c r="C274">
-        <v>2308420</v>
+        <v>4870712</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
@@ -4378,7 +4374,7 @@
         <v>12</v>
       </c>
       <c r="C275">
-        <v>3382510</v>
+        <v>6400361</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
@@ -4389,7 +4385,7 @@
         <v>12</v>
       </c>
       <c r="C276">
-        <v>4272020</v>
+        <v>7865902</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
@@ -4400,7 +4396,7 @@
         <v>12</v>
       </c>
       <c r="C277">
-        <v>4794290</v>
+        <v>8780541</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
@@ -4411,7 +4407,7 @@
         <v>12</v>
       </c>
       <c r="C278">
-        <v>3803590</v>
+        <v>6983449</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
@@ -4422,7 +4418,7 @@
         <v>12</v>
       </c>
       <c r="C279">
-        <v>2982520</v>
+        <v>6125394</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
@@ -4433,7 +4429,7 @@
         <v>12</v>
       </c>
       <c r="C280">
-        <v>3351190</v>
+        <v>6859039</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
@@ -4444,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="C281">
-        <v>2284720</v>
+        <v>4648072</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
@@ -4455,7 +4451,7 @@
         <v>12</v>
       </c>
       <c r="C282">
-        <v>4154860</v>
+        <v>8155796</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
@@ -4466,7 +4462,7 @@
         <v>12</v>
       </c>
       <c r="C283">
-        <v>4616300</v>
+        <v>8998440</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
@@ -4477,7 +4473,7 @@
         <v>23</v>
       </c>
       <c r="C284">
-        <v>4333900</v>
+        <v>7913290</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
@@ -4488,7 +4484,7 @@
         <v>23</v>
       </c>
       <c r="C285">
-        <v>3502100</v>
+        <v>6899970</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
@@ -4499,7 +4495,7 @@
         <v>23</v>
       </c>
       <c r="C286">
-        <v>4713520</v>
+        <v>8817622</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
@@ -4510,7 +4506,7 @@
         <v>23</v>
       </c>
       <c r="C287">
-        <v>3818100</v>
+        <v>6953430</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
@@ -4521,7 +4517,7 @@
         <v>23</v>
       </c>
       <c r="C288">
-        <v>2237720</v>
+        <v>5257692</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
@@ -4532,7 +4528,7 @@
         <v>23</v>
       </c>
       <c r="C289">
-        <v>2571800</v>
+        <v>6031190</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
@@ -4543,7 +4539,7 @@
         <v>23</v>
       </c>
       <c r="C290">
-        <v>2153600</v>
+        <v>4617360</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
@@ -4554,7 +4550,7 @@
         <v>23</v>
       </c>
       <c r="C291">
-        <v>1550520</v>
+        <v>3568972</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
@@ -4565,7 +4561,7 @@
         <v>23</v>
       </c>
       <c r="C292">
-        <v>3302920</v>
+        <v>6700144</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
@@ -4576,7 +4572,7 @@
         <v>23</v>
       </c>
       <c r="C293">
-        <v>1587800</v>
+        <v>4012580</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
@@ -4587,7 +4583,7 @@
         <v>23</v>
       </c>
       <c r="C294">
-        <v>2558120</v>
+        <v>5397172</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
@@ -4598,7 +4594,7 @@
         <v>4</v>
       </c>
       <c r="C295">
-        <v>2475300</v>
+        <v>3927330</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
@@ -4609,7 +4605,7 @@
         <v>4</v>
       </c>
       <c r="C296">
-        <v>4476360</v>
+        <v>9559528</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
@@ -4620,7 +4616,7 @@
         <v>4</v>
       </c>
       <c r="C297">
-        <v>4833000</v>
+        <v>11182160</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
@@ -4631,7 +4627,7 @@
         <v>4</v>
       </c>
       <c r="C298">
-        <v>2540800</v>
+        <v>5541910</v>
       </c>
     </row>
   </sheetData>
